--- a/other/ProgressTrackingSheet (1).xlsx
+++ b/other/ProgressTrackingSheet (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -435,7 +435,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/MMM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -487,6 +487,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -530,7 +537,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -587,6 +594,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -606,16 +617,16 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="144.84693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="143.224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,14 +721,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -729,14 +740,14 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -748,14 +759,14 @@
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -767,14 +778,14 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -786,14 +797,14 @@
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -805,7 +816,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>2</v>
       </c>
@@ -824,14 +835,14 @@
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -900,14 +911,14 @@
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B18" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -917,14 +928,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -934,14 +945,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1056,16 +1067,16 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B88" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B88" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
